--- a/Actas de Reunión/Sprint - 05/4. BurndownChart - Sprint 05.xlsx
+++ b/Actas de Reunión/Sprint - 05/4. BurndownChart - Sprint 05.xlsx
@@ -167,15 +167,6 @@
     <t>Juan Camilo Nieto</t>
   </si>
   <si>
-    <t>Diana Milena Ramirez</t>
-  </si>
-  <si>
-    <t>Yuli Arias</t>
-  </si>
-  <si>
-    <t>Julian Andres</t>
-  </si>
-  <si>
     <t>Cargar la información al github</t>
   </si>
   <si>
@@ -186,6 +177,15 @@
   </si>
   <si>
     <t>Creación de Front en Visual</t>
+  </si>
+  <si>
+    <t>Diana Milena Restrepo</t>
+  </si>
+  <si>
+    <t>Yuli Tatiana Cañon</t>
+  </si>
+  <si>
+    <t>Julian Andres Vargas</t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1559,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="337321208"/>
-        <c:axId val="337323952"/>
+        <c:axId val="397396448"/>
+        <c:axId val="397390568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1855,11 +1855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337321208"/>
-        <c:axId val="337323952"/>
+        <c:axId val="397396448"/>
+        <c:axId val="397390568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337321208"/>
+        <c:axId val="397396448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1961,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337323952"/>
+        <c:crossAx val="397390568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1970,7 +1970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337323952"/>
+        <c:axId val="397390568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2074,7 +2074,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337321208"/>
+        <c:crossAx val="397396448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2734,7 +2734,7 @@
         <xdr:cNvPr id="15" name="Diagramm 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B1C02F-1D39-F847-9FB0-BD434C64481F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54B1C02F-1D39-F847-9FB0-BD434C64481F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +3137,7 @@
   <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -4334,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -4363,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -4392,7 +4392,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -4421,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
